--- a/广东/广东5A景区信息.xlsx
+++ b/广东/广东5A景区信息.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="孙中山故里旅游区" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="长隆度假旅游区" sheetId="4" r:id="rId1"/>
+    <sheet name="深圳华侨城旅游区" sheetId="3" r:id="rId2"/>
+    <sheet name="深圳观澜湖休闲旅游区" sheetId="5" r:id="rId3"/>
+    <sheet name="雁南飞茶田景区" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239">
   <si>
     <t>所在省份</t>
   </si>
@@ -425,7 +425,353 @@
     <t>绿荫下，小桥流水人家，长隆飞鸟乐园入口雨林广场水池旁，占地面积约900平方米，上百只美洲红鹮的栖息之地。在这里生活着一群红衣舞者“美洲红鹮”，它们被誉为世界上毛色最红的鸟类，也是十大爱情鸟之一，对爱情坚贞不移，严格实行一夫一妻制，长隆飞鸟乐园的红鹮岛展区主要分为三个大岛，岛上有精心选种了多种水生植物、还有几个小池塘，最大限度的还原了美洲红鹮的生活环境，此外，展区还设有投喂点，游客在观赏的同时还能进行互动。</t>
   </si>
   <si>
-    <t>中山市</t>
+    <t>深圳市</t>
+  </si>
+  <si>
+    <t>华侨城旅游度假区</t>
+  </si>
+  <si>
+    <t>深圳华侨城旅游度假区坐落于美丽的南海之滨、深圳湾畔，约六平方公里的土地上，长年繁花似锦、绿树成荫，这里汇聚了中国最为集中的文化主题公园群、文化主题酒店群和文化艺术设施群，这里是中国首批5A级旅游景区、首批全国文明风景旅游区、国家级文化产业示范园区，这里是"精彩深圳、欢乐之都"流光溢彩的一张城市名片。</t>
+  </si>
+  <si>
+    <t>锦绣中华.中国民俗文化村</t>
+  </si>
+  <si>
+    <t>锦绣中华.中国民俗文化村是由深圳锦绣中华发展有限公司运营管理的锦绣中华微缩景区和中国民俗文化村两大主题公园，是国内目前最具实力和典范性的文化主题公园.深圳锦绣中华发展有限公司是香港中旅集团和华侨城集团合资兴办的大型文化旅游企业.锦绣中华微缩景区占地 30 万平方米，是中国五千年历史文化和九百六十万平方公里锦绣河山的荟萃和缩影，也是目前世界上面积最大的实景微缩景区;中国民俗文化村占地 20 多万平方米，是中国第一个荟萃各民族民间艺术、民俗风情和民居建筑于一园的大型文化旅游景区，内含 22 个民族的 25 个村寨，均按 1 ： 1 的比例建成。</t>
+  </si>
+  <si>
+    <t>锦绣中华</t>
+  </si>
+  <si>
+    <t>锦绣中华是中国最早的文化主题公园，坐落在风光绮丽的深圳湾畔。她是目前世界上面积最大、内容最丰富的实景微缩景区，占地四百五十亩，分为主点区和综合服务区两部份。“一步迈进历史，一天游遍中华”是该景点的口号，园中的82个景点均按中国版图位置分布，大都按1:15复
+制。其中有五万多个栩栩如生的陶艺小人和动物点缀在各景点，生动再现了我国的历史文化及民俗风情。锦绣中华是中国最早的文化主题公园，坐落在风光绮丽的深圳湾畔。她是目前世界上面积最大、内容最丰富的实景微缩景区，占地四百五十亩，分为主点区和综合服务区两部份。“一步迈进历史，一天游遍中华”是该景点的口号，园中的82个景点均按中国版图位置分布，大都按1:15复
+制。其中有五万多个栩栩如生的陶艺小人和动物点缀在各景点，生动再现了我国的历史文化及民俗风情。</t>
+  </si>
+  <si>
+    <t>中华民俗文化村</t>
+  </si>
+  <si>
+    <t>中华民俗文化村于1991年10月1日正式开幕，是国内第一个荟萃各民族的民间艺术、民俗风情和民居建筑于一体的大型文化游览区。由香港中国旅行社与深圳华侨城经济发展总公司投资建造，坐落在风光秀丽的深圳湾畔，毗邻著名的锦绣中华 微缩景区。中国民俗文化村占地20多万平方
+米。内含21个民族的24个村寨，按1:1比例建成。有二十四个村寨、五十六族风情”、“中国民俗博物馆”之美誉。中华民俗文化村于1991年10月1日正式开幕，是国内第一个荟萃各民族的民间艺术、民俗风情和民居建筑于一体的大型文化游览区。由香港中国旅行社与深圳华侨城经济发展总公司投资建造，坐落在风光秀丽的深圳湾畔，毗邻著名的锦绣中华 微缩景区。中国民俗文化村占地20多万平方
+米。内含21个民族的24个村寨，按1:1比例建成。有二十四个村寨、五十六族风情”、“中国民俗博物馆”之美誉。</t>
+  </si>
+  <si>
+    <t>世界之窗</t>
+  </si>
+  <si>
+    <t>　　荟萃人类文明，弘扬世界文化，作为中国文化主题公园第一品牌，深圳世界之窗不仅包罗世界130余处名胜古迹及各民族风情表演、再现各国文化精髓、展示异域民俗风情，更以时尚的娱乐元素为游客带来最潮流动感、最丰富多彩的“ 世界之旅 ”！</t>
+  </si>
+  <si>
+    <t>世界广场</t>
+  </si>
+  <si>
+    <t>世界广场108根意蕴深远的廊柱，1680平方米象征世界文明的浮雕墙，六座代表不同文化的城门和镶嵌其中的全景式环球舞台，大气磅礴，肃穆威严。历史的长河浩如烟海，承袭着凝重与庄严雄伟，裹挟着科技与梦幻。</t>
+  </si>
+  <si>
+    <t>国际街</t>
+  </si>
+  <si>
+    <t>国际街以欧、亚、伊斯兰等民居建筑风格为主体，集教堂、集市、街道于一处，是供游人小憩和购物的好地方，步入‘国际街’，游客仿佛置身于欧洲、亚洲、伊斯兰那些异国的浪漫之乡，无处不弥漫着古老而悠远的异域情调，执目而望，欧洲中世纪风格的建筑矗立身旁，造型独特；沿街而上，错落有致，每一栋都张显着个性，耐人寻味。风姿绰绰、名副其实的欧式建筑街区，就这样不期然的鹤立眼前。</t>
+  </si>
+  <si>
+    <t>亚洲区</t>
+  </si>
+  <si>
+    <t>亚细亚，美丽而神秘的东方，在盈盈一握的方寸间展示着绚丽的画卷。日本皇居――桂离宫演绎皇室的奢华。传统的茶道、花道展演着古老的扶桑情韵。金碧辉煌的缅甸仰光大金塔，无不讲叙着王朝的兴盛。印度，一个被故事浸染的国度，摩多哈拉圣井让我们洗净灵魂的尘埃；泰姬玛哈尔陵让世人目睹爱情的绝唱，世界一奇观。东南亚水乡营造出浓郁的亚洲风情让我们品尝丰收的成果、聆听生命的歌唱。</t>
+  </si>
+  <si>
+    <t>欧洲区</t>
+  </si>
+  <si>
+    <t>放眼欧洲，文艺复兴的陈迹遍布视野。爱琴海的季风、地中海的阳光，编织成欧罗巴的交响；埃菲尔铁塔一柱擎天，凯旋门见证了历史的沧桑；意大利升起了我心中的太阳，圣彼得大教堂重复着创世纪的序言；华西里目睹了红场的巨变，奥林匹克山上的钟声为我们作证：人类文明之花是用鲜血浇注！在这片被诺亚方舟承载的土地，让我们以莎士比亚的诗篇缅怀昨天，用荷兰的风车和郁金香点缀今天的家园。宫廷园林旁汇集了欧洲各个历史时期的经典建筑。巴黎春天购物广场、罗马假日广场、海神喷泉广场同恺撒宫构筑出极富人文气息的欧陆场景。</t>
+  </si>
+  <si>
+    <t>美洲区</t>
+  </si>
+  <si>
+    <t>尼亚加拉大瀑布的流水声，将人们牵引到现代文明与古老文化交相辉映的美洲。墨西哥的武士们端庄而凝神，巴西基督山上圣洁的灵魂昼夜守护着众生。美国国会大厦、白宫、华盛顿纪念碑让你触摸到美利坚的精髓；纽约曼哈顿林立的高楼折射出现代文明的光辉；总统山上的总统们会心地笑了，自由女神也笑了。人类的智慧让未知的世界变成了瑰丽的家园。
+大洋洲区</t>
+  </si>
+  <si>
+    <t>大洋洲区</t>
+  </si>
+  <si>
+    <t>横跨蔚蓝色的水域，迎接人们的是神奇的澳洲大陆。在百米喷泉的沐浴下，蹲伏在海岸边的悉尼歌剧院。
+芙蓉出水，独特的贝壳造型让人联想起珍珠的晶莹，同直冲云霄的百米喷泉、变幻迷离的艾尔斯变色石互相映衬，动人美景令人流连忘返；漫卷的山野跳跃着袋鼠的身影；艾尔斯变色石变幻迷离；激越的鼓声敲响了毛利民族对生命的讴歌，铿锵的舞姿昭示一个生生世世对自由的渴望，绵延千年后，依旧荡气回肠。</t>
+  </si>
+  <si>
+    <t>世界雕塑园</t>
+  </si>
+  <si>
+    <t>雕塑园掩映在绿荫丛中，园内郁郁葱葱的荔枝林与来自五大洲近百尊著名雕塑作品相映成趣，共同营造了环境优雅的艺术殿堂。从罗丹的上帝之手到米开朗基罗的被缚的奴隶，从拿破仑之妹到神秘的三星堆铜人，展示着不同民族的智慧和审美情趣。</t>
+  </si>
+  <si>
+    <t>欢乐海岸</t>
+  </si>
+  <si>
+    <t>坐落于深圳湾畔的欢乐海岸，是一个以海洋文化为主题、以生态环保为理念、以创新型商业为主体、以创造国际都市滨海生活方式为愿景，并融汇主题商业、时尚娱乐、生态旅游、商务度假等多元业态为一体的城市文化综合体。</t>
+  </si>
+  <si>
+    <t>麦鲁小城</t>
+  </si>
+  <si>
+    <t>麦鲁小城是文化央企华侨城集团公司全资倾心打造的新一代儿童职业体验乐园。中国文化旅游第一品牌华侨城集团，已培育出欢乐谷、锦绣中华、世界之窗、康佳、波托菲诺、城市客栈等著名企业和品牌，曾被评为全国首批仅有的两家“国家级文化产业示范园区”及“中国文化企业30强”。2014年华侨城全年接待游客量达3000万人次，连续多年名列全球旅游景区集团4强，继续领跑亚洲同行。
+麦鲁小城作为华侨城集团进军儿童文化产业的战略举措，由深圳华侨城哈克文化有限公司进行开发，已成功布局深圳、成都、武汉、东莞、天津、淄博、苏州、赣州8座城市，共9家麦鲁小城，已经成为国内儿童职业体验行业第一连锁品牌。2015年荣获了行业内“中国十大儿童娱乐品牌”的称号。</t>
+  </si>
+  <si>
+    <t>何香凝美术馆</t>
+  </si>
+  <si>
+    <t>1995年5月13日何香凝美术馆经中央批准在深圳兴建，1997年4月18日建成开馆。时任中共中央总书记江泽民题写馆名。为中国第一个以个人名字命名的国家级美术馆。  
+何香凝美术馆建筑面积5000余平方米，主体采用灰、白两色调，典雅庄重。建筑风格极简朴素，于浓郁的传统文化氛围中体现着现代感，更体现着何香凝先生一生的品格。美术馆建筑共三层，设有主展厅、副展厅、咨询厅、贵宾厅、多功能报告厅、藏品库、画室、美术培训中心、裱画间以及咖啡厅、书店等配套设施。</t>
+  </si>
+  <si>
+    <t>主展厅</t>
+  </si>
+  <si>
+    <t>上下两层共6个展室，面积650平方米。空间为长方形、右右对称，规矩庄重。用于陈列何香凝书画作品、举办大型展览。</t>
+  </si>
+  <si>
+    <t>副展厅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 副展厅
+上下两层共2个展室，面积567平方米。空间富于变化，视觉效果突出。特别适合举办当代艺术家的个展、联展和专题展。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 报告厅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 报告厅
+位于美术馆一楼，设有124个固定阶梯座位和一定数量的临时座椅，并装有作记录用的活动桌面板。先进的大屏幕投影设备，能分别或同时播放网络与本机的多媒体资料片。高品质的环绕音响系列设备，为播放各类资料片创造了优越的条件。用于举办学术讲座、学术论坛、学术报告会、影像观摩等活动。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 咨询中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 咨询中心
+位于美术馆二楼大堂左侧，可容纳60人。配有大屏幕投影仪、音像设备，用于专业会议使用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 少儿画苑</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 少儿画苑
+位于美术馆一楼，分大、小两个画室，用于美术培训。 
+大画室面积为198.72平方，高3米。配有电视、投影等设备供教学使用。 
+小画室面积为128.34平方，高3米。主要为素描教学使用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美术馆书店</t>
+  </si>
+  <si>
+    <t>位于美术馆二楼前台左侧, 美术馆和广东学而优书店合作，与何香凝美术馆的学习定位和相关活动相匹配，精选人文艺术社科图书和美术馆编辑出版的相关图册，供参观者选购。</t>
+  </si>
+  <si>
+    <t>咖啡厅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 咖啡厅
+位于美术馆二楼前台右侧，为观众休闲的场地。窗外长长的灰色墙体弧形洞囗通透发散, 与婉延的人行通道伸远而去, 其间青竹郁郁葱葱，随风摇曳，使人们在欣赏艺术品之余，亦能体会到何香凝美术馆的中国传统建筑风格的典雅与凝重。</t>
+  </si>
+  <si>
+    <t>华侨城创意文化园</t>
+  </si>
+  <si>
+    <t>OCT-LOFT华侨城创意文化园位于深圳华侨城原东部工业区内，地处华侨城东北部，东邻侨城东路，北靠侨香路，原入驻企业多为上世纪80年代引进的“三来一补”工业企业。园区占地面积约15万平方米，建筑面积约20万平方米，分为南北两区。2004年下半年以来，富有创想精神的华侨城人根据厂房的建筑特点以及政府对文化和创意产业的相关政策指引，创造性地提出将工业区改造为LOFT创意产业园区的想法，通过将旧厂房改造为创意产业的工作室，引进各类型创意产业，如设计、摄影、动漫创作、教育培训、艺术等行业，还有一些有创意特色的相关产业如概念餐厅、酒廊、零售、咖啡等。通过这些改造，使旧厂房的建筑形态和历史痕迹得以保留，同时又衍生出更有朝气更有生命力的产业经济。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 华夏艺术中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 华夏艺术中心(简称“华夏”)，成立于1991年9月，隶属于华侨城集团公司，以弘扬华夏文明，促进海内外文化交流，发展高雅艺术教育为宗旨，是多功能、综合性的文化实体。历年来组织、策划和承办的文化活动已高品质创出自己的品牌，得到社会各界的高度认同，在发展、成长的道路上留下了坚实的脚印。华夏艺术中心将一如既往与全国文化届朋友广泛合作，为推动中国文化艺术事业的健康、快速发展做贡献。</t>
+  </si>
+  <si>
+    <t>华·美术馆</t>
+  </si>
+  <si>
+    <t>华•美术馆是国内首家以设计为主题的美术馆，于2008年9月1日在深圳华侨城正式成立，毗邻何香凝美术馆、OCAT深圳馆。现为OCAT馆群中的设计馆。</t>
+  </si>
+  <si>
+    <t>当代艺术中心</t>
+  </si>
+  <si>
+    <t>中国目前唯一一所隶属于国家级美术馆的非盈利性当代艺术机构。</t>
+  </si>
+  <si>
+    <t>洲际大酒店</t>
+  </si>
+  <si>
+    <t>客人挚爱的杰出酒店。洲际酒店集团在全世界近100个国家和地区拥有5,000家酒店，共有12个酒店品牌。
+我们发展我们的品牌，响应客人的需求。从Kemmons Wilson因无法为家人找到经济、舒适的酒店而创办的假日酒店，到我们的最新成员：专门为中国消费者设计的首个顶级国际酒店品牌华邑®酒店及度假村。</t>
+  </si>
+  <si>
+    <t>观澜湖休闲旅游区</t>
+  </si>
+  <si>
+    <t>观澜湖深圳占地二十平方公里。拥着全球首选高尔夫圣地的荣耀，拥有七个由高尔夫界著名球星设计的十八洞球场, 以及多个顶级高尔夫及网球学院, 会所, 酒店及水疗中心为会员及宾客提供优质服务。</t>
+  </si>
+  <si>
+    <t>高尔夫</t>
+  </si>
+  <si>
+    <t>观澜湖是中国最高档次的高尔夫和休闲度假胜地，也是“吉尼斯世界纪录”记载的世界上最大的高尔夫球会。这个占地二十平方公里的高尔夫球综合产业群，拥有十二个十八洞全部由高尔夫界最伟大的传奇人物设计的锦标级球场。作为中国高尔夫的摇篮，观澜湖举办亚太地区最重要的赛事，包括高尔夫世界杯和亚洲业余锦标赛等在内。</t>
+  </si>
+  <si>
+    <t>亲子欢乐游</t>
+  </si>
+  <si>
+    <t>占地超过20,000平方米，设施包括以被列入联合国世界遗产的福建客家土楼为设计灵感的水疗主楼、水疗别墅、水疗大宅、设计风格清幽的瑜伽亭以及火山岩温泉体验园等。除了提供一系列面部、身体及按摩护理外，海口矿温泉水疗中心更采用源自海南岛的素材，设计各式别具海南特色水疗体验。</t>
+  </si>
+  <si>
+    <t>会所水疗中心</t>
+  </si>
+  <si>
+    <t>一个调适心灵、洗涤烦念和护养身体的宁静空间。Spring Hill拥有完备水疗设施，并揉合传统东方及西方古代的理疗技术，让您的身心得以加倍放松。</t>
+  </si>
+  <si>
+    <t>保健及美容</t>
+  </si>
+  <si>
+    <t>享受Spa之余，可将SPA体验带回家或与好友及家人分享。水疗护理用品专门店宽敞的空间提供一系列为您精心挑选的家居护理用品、香熏系列产品、美甲、美发产品、Spa纪念品，世界各地知名水疗品牌及观澜湖自家品牌，并不断引入新品牌或新种类以迎合客户的多元化需求，务求带给您悠闲、健康的生活享受。</t>
+  </si>
+  <si>
+    <t>观澜湖生态体育园</t>
+  </si>
+  <si>
+    <t>观澜湖生态体育园坐落于国家AAAAA级观澜湖旅游度假区，占地22万平方米，是深圳北目前唯一具有生态旅游、体育、休闲、娱乐等功能的综合主题公园。
+园区内绿意葱茏，景色宜人。在生态主题方面，独特的水库风光、森林景观、废旧轮胎公仔景观、绿茵草坪、树林山地自行车赛道等美景互相点缀印衬。亲子主题配备了大型露天儿童城堡、旋转木马、动植物园、儿童推杆果岭等项目，是一家大小周末游玩的好去处。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 儿童游乐场</t>
+  </si>
+  <si>
+    <t>原装瑞典进口特大儿童城堡，超过1500平方米，集游乐、运动、益智于一体，是小朋友流连忘返的欢乐天地。</t>
+  </si>
+  <si>
+    <t>狗公园</t>
+  </si>
+  <si>
+    <t>绿油油的草地上，狗狗们尽情快乐自由的奔跑嬉戏，认识新朋友。狗公园内有狗狗美容、培训和宠物酒店等服务。
+还有精彩的警犬训练表演，不容错过！</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 烧烤乐园</t>
+  </si>
+  <si>
+    <t>于园内景色迷人的湖畔旁，配套设施齐全，提供丰盛的烧烤食材和饮品，是亲朋好友聚会的好去处！</t>
+  </si>
+  <si>
+    <t>星光大道</t>
+  </si>
+  <si>
+    <t>超过100位国际明星和高尔夫球手的手印和亲笔签名，星光熠熠。</t>
+  </si>
+  <si>
+    <t>水上乐园</t>
+  </si>
+  <si>
+    <t>快乐手划船，刺激遥控船，或者当个小小渔夫，和小朋友一起感受玩水的乐趣。</t>
+  </si>
+  <si>
+    <t>观澜湖工艺厂</t>
+  </si>
+  <si>
+    <t>观澜湖艺工场于2016年5月开业，集合手工体验、原创设计、博物展览、科技创客、文化娱乐五大概念于一体，总规划面积逾5万平米。
+一期首次亮相总面积达2万多平方米，开放3、4、5、7及2A栋，集合多个特色旗舰项目，包括全国最大的O2O学手工项目【手艺网】和【手艺工场】、集合体验科技与筑梦创新的【创空间】、亚洲潮流原创品牌集群空间【Saturday】、生活艺术展览空间【奇艺文化馆】、香港艺术运动空间【URBAN CROXX】、香港原创设计品牌【G.O.D住好啲】、咖啡文化空间【Gee Coffee】、音乐文化空间【红糖罐】以及集合IMAX独栋影院和文创书吧的【橙天嘉禾】等多个主力项目。二期即将开放。</t>
+  </si>
+  <si>
+    <t>艺工场3号楼</t>
+  </si>
+  <si>
+    <t>艺工场3号楼着力引进众多亚洲文创达人产品丶时尚潮流艺术空间及多重创意活动，其中包括香港本土家具品牌代表"住好啲G.O.D."打造的内地旗舰店；深港咖啡大师联手打造的Gee Coffee；亚洲青年创作平台旗下集城市文化丶街头艺术丶创意工作坊丶健身竞技等关注青年身心灵发展的多元艺术生活化平台Urban Croxx；与奇艺文化策划有限公司合作的奇艺文化馆（Chizhi Museum），展出西班牙现代艺术三杰之一的胡安·米罗等一系列大师的名作；深圳首家专注男士理发服务的专业教育培训学院NOC；荷兰高级订制单车店Colossi Concept Store。</t>
+  </si>
+  <si>
+    <t>创空间</t>
+  </si>
+  <si>
+    <t>赛伯乐观澜湖创空间是由观澜湖集团与赛伯乐投资集团合资搭建，注入科技元素到文创合体，提供以科技互动，体验学习，孵化空间，培育共享的创空间项目。每层楼都有独特的功能，一楼为大众提供炫酷的科技、娱乐互动体验、科技产品展示为主；二楼青少年教育培训及互动中心；三楼为初创企业提供创业孵化基地及共享办公室；四楼给优秀创业企业提供创业加速器，使之快速的发展。</t>
+  </si>
+  <si>
+    <t>艺工场5号楼</t>
+  </si>
+  <si>
+    <t>艺工场5号楼有世界第一铁皮玩具收藏家日本北原照久及专业"中国制造"铁皮玩具收藏家陈国泰合力呈现的国内馆藏最丰富的"铁皮玩具馆"以及定期策划更新的各类高品质艺术设计展览，例如正在展出的“APPortfolio七周年国际艺术收藏展”、“雷文·Qee艺展”
+TOK博物群的概念源自於圣经里的Tree of Knowledge（智慧之树），这里汇聚了一群最有创意的博物空间及生活美学空间。希望每一个来到这里的人通过看展览丶学知识丶或者是和自己的孩子一起学习思考，强化独立思考能力，做一个更好的自己。</t>
+  </si>
+  <si>
+    <t>手艺工场</t>
+  </si>
+  <si>
+    <t>这里是国内面积最大丶种类最全丶设备最精良的O2O手工体验坊，4000㎡超大空间让你沉浸手艺时光，唤醒生活美学真挚丶率性的表达方式和人生态度。
+一楼有1000㎡丶堪称国内最大单店的手工艺精品店。以极精致丶近完美的设计赋予寻常器物无限美感，融汇开放丶创意丶时尚的陈列美学理念，这里就是生活美学的大视界。
+二至四楼囊括木艺丶皮艺丶布艺丶陶艺丶玻璃丶纸艺丶金工丶小手工丶雅集等九类艺术的手工体验工坊。你可以亲手做个牛皮的包包丶用活字印刷出一封情书丶自己扎染一条围巾丶做副晶莹剔透的玻璃耳环，如果够有耐心的话，还可以自己织块布再缝制成衣服哦！在手艺工场，没有做不到，只有想不到。</t>
+  </si>
+  <si>
+    <t>梅州市</t>
+  </si>
+  <si>
+    <t>雁南飞茶田景区</t>
+  </si>
+  <si>
+    <t>雁南飞茶田景区是粤东首个国家5A级旅游景区，坐落于叶剑英元帅的故乡——梅县雁洋镇。雁南飞似灵山秀水所孕育的一颗“明珠”，在青山环绕中向世人呈现一幅世外桃源的醉人画卷……
+    走进客家的“雁南飞”，不需要传说的理由，因为，它是个真实的地方，它比传说中更美丽、更丰富、更动人……</t>
+  </si>
+  <si>
+    <t>雁南飞神石</t>
+  </si>
+  <si>
+    <t>它是度假村的标志性建筑，上面刻有“雁南飞、茶中情”六个大字，“雁南飞”这个富有诗意的名字寓意客家人对“北雁南飞”的根本认同：“茶中情”表达了雁南飞经茶文化为内涵，与茶结缘，与茶会友，与茶传情。雁南飞已种植白叶单丛为主的标准化茶田2600亩，建起了现代化的茶叶工厂。</t>
+  </si>
+  <si>
+    <t>雁南飞大道</t>
+  </si>
+  <si>
+    <t>大道两边种植有小叶榕树和凤凰木，树下种上各种季节性的鲜花并摆放大小溪石作园林景观，山崖上种植的是勒杜鹃、炮仗花等花卉进行立体绿化，右边种植的生态龙眼园、荔枝园以及改造种植的马占相思速生林；通过科学合理的种树、种草和种花，不但保护了生态环境，而且两边美丽的园林景观，给人一种世外桃源的感觉。</t>
+  </si>
+  <si>
+    <t>游客中心和茶情阁</t>
+  </si>
+  <si>
+    <t>是度假村为各位游客提供咨询、休息、免费品茶、购买雁南飞茗茶和客家特产的场所。这里无环境污染的高山云雾自然环境，加上优质的品种和清湛的加工技术，生产出香气清高幽深、滋味鲜爽的雁南飞金单丛乌龙茶、金桂兰乌龙茶、茉莉花绿茶等十大系列茗茶，其中金单丛乌龙茶获得国
+ 家“绿色食品”认证和“名牌产品”认定。另外还有各式茶具、平远梅菜干、柚皮糖等旅游纪念品和客家特产。</t>
+  </si>
+  <si>
+    <t>围龙大酒店</t>
+  </si>
+  <si>
+    <t>围龙大酒店于2002年9月建成营业，是根据客家围龙屋的反围龙结构建造，建筑面积12000多平方米，楼高6层，从大堂进入直接到第4层，上下各3层，共有标准房、套房和单间138间。每个房间都有一个特别设置阳台，站在阳台上可以尽情观赏度假村的美景，这是酒店最突出的特色之一；酒店非常注重文化内涵的建设，在每个客房和过道上都装裱了客家名人诗画和名人格言。首层为美容美发、桑拿健身等娱乐设施。</t>
+  </si>
+  <si>
+    <t>围龙食府</t>
+  </si>
+  <si>
+    <t>围龙食府接客家土楼的建筑结构建造，2003年建成。第二层是宴会大厅和歌舞表演台，楼梯右边有副长联：“客相逢你是客我是客来客都是客，家团圆东一家西一家大家是一家”，这是著名书画家陈景舒先生的墨宝，把五个“客家”中成一副对联。这边摆放了一些客家人的生活用具和瓜果，示意“五谷丰登，年年有余”的好年景。宴会厅共有32台，可接待各种大型宴会。右边是歌舞表演台，每天晚上或中午饭市时间由雁南飞山歌艺术团表演具有浓郁客家特色的歌舞节目；请大家往上看，正上面的大圆屋可要请大家猜一猜了，一个个小圆圈是用什么做的？</t>
+  </si>
+  <si>
+    <t>笑傲江湖瀑布</t>
+  </si>
+  <si>
+    <t>“笑傲江湖”瀑布，全长168米，高4.8米。瀑布下面的石碑上刻有各种名人格言，非常耐人寻味。</t>
+  </si>
+  <si>
+    <t>龙那山生态谷</t>
+  </si>
+  <si>
+    <t>这里有峰恋叠嶂的原始次生林区，一个天然大氧吧。进入生态保护区，请大家注意火种。龙那山有国家一类保护植物桫椤、二类保护动物穿山甲、白鹇等，经常可见到一些松鼠、变色龙等小动物。这里秀丽的山色，清新的空气，涓涓的山泉，让你心旷神怡，流边忘返。</t>
+  </si>
+  <si>
+    <t>仙茶阁</t>
+  </si>
+  <si>
+    <t>仙茶阁也是提供免费品茶和休息的地方。仙茶阁以竹木为主要建筑材料，全部选用竹制家私，与龙那山的自然景观更加协调，在这里品茶更幽静和舒服。</t>
+  </si>
+  <si>
+    <t>高级别墅区</t>
+  </si>
+  <si>
+    <t>别墅区初建于1997年秋，有度假别墅14栋，有五房二厅、三房一厅和两房一
+厅三种规格。2004年夏按仿古风格重新装修，由原来封闭式改为敞开式，室内装饰豪华，具有丰富文化的内涵。这是龙壶泳池，池水从石雕龙嘴茶壶中吐出，泳池外侧是锦鲤池，这是“千古一茶”，用一种叫福建茶的植物种植物修剪而成。</t>
   </si>
 </sst>
 </file>
@@ -434,9 +780,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -478,20 +824,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -499,7 +831,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,9 +860,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,38 +883,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,6 +909,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,16 +951,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,19 +988,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,73 +1036,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +1060,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,31 +1114,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,19 +1144,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,17 +1258,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -968,6 +1303,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -976,10 +1322,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,19 +1334,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,119 +1355,119 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1212,10 +1558,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1569,7 +1924,7 @@
   <sheetPr/>
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
@@ -1578,7 +1933,7 @@
     <col min="1" max="5" width="11.7777777777778" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.7777777777778" style="2" customWidth="1"/>
     <col min="7" max="8" width="18.8888888888889" style="2" customWidth="1"/>
-    <col min="9" max="9" width="93.4444444444444" style="30" customWidth="1"/>
+    <col min="9" max="9" width="93.4444444444444" style="33" customWidth="1"/>
     <col min="10" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
@@ -1607,7 +1962,7 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3316,10 +3671,1650 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I175"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="11.7777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.7777777777778" style="33" customWidth="1"/>
+    <col min="7" max="8" width="18.8888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="93.4444444444444" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="69.75" customHeight="1" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="50.1" customHeight="1" spans="5:9">
+      <c r="E25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="60" spans="2:9">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="27"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="21"/>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="21"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="21"/>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="28"/>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="28"/>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="28"/>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="21"/>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="28"/>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="29"/>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="28"/>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+    </row>
+    <row r="74" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="28"/>
+    </row>
+    <row r="76" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="28"/>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="28"/>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="28"/>
+    </row>
+    <row r="80" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="28"/>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="28"/>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="28"/>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="28"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="27"/>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="27"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+    </row>
+    <row r="90" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="28"/>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="21"/>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="28"/>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="27"/>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="27"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="28"/>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="27"/>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="27"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="28"/>
+    </row>
+    <row r="101" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="28"/>
+    </row>
+    <row r="102" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+    </row>
+    <row r="103" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="27"/>
+    </row>
+    <row r="104" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="27"/>
+    </row>
+    <row r="105" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="28"/>
+    </row>
+    <row r="106" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="27"/>
+    </row>
+    <row r="107" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="27"/>
+    </row>
+    <row r="108" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="27"/>
+    </row>
+    <row r="109" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="28"/>
+    </row>
+    <row r="110" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="28"/>
+    </row>
+    <row r="111" spans="5:5">
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="5:5">
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" spans="5:5">
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" spans="5:5">
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138" spans="5:5">
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" spans="5:5">
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" spans="5:5">
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141" spans="5:5">
+      <c r="E141" s="5"/>
+    </row>
+    <row r="142" spans="5:5">
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" spans="5:5">
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" s="5"/>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="5"/>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153" spans="5:5">
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="5"/>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" spans="5:5">
+      <c r="E156" s="5"/>
+    </row>
+    <row r="157" spans="5:5">
+      <c r="E157" s="5"/>
+    </row>
+    <row r="158" spans="5:5">
+      <c r="E158" s="5"/>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" s="5"/>
+    </row>
+    <row r="160" spans="5:5">
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161" spans="5:5">
+      <c r="E161" s="5"/>
+    </row>
+    <row r="162" spans="5:5">
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163" spans="5:5">
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" spans="5:5">
+      <c r="E164" s="5"/>
+    </row>
+    <row r="165" spans="5:5">
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166" spans="5:5">
+      <c r="E166" s="5"/>
+    </row>
+    <row r="167" spans="5:5">
+      <c r="E167" s="5"/>
+    </row>
+    <row r="168" spans="5:5">
+      <c r="E168" s="5"/>
+    </row>
+    <row r="169" spans="5:5">
+      <c r="E169" s="5"/>
+    </row>
+    <row r="170" spans="5:5">
+      <c r="E170" s="5"/>
+    </row>
+    <row r="171" spans="5:5">
+      <c r="E171" s="5"/>
+    </row>
+    <row r="172" spans="5:5">
+      <c r="E172" s="5"/>
+    </row>
+    <row r="173" spans="5:5">
+      <c r="E173" s="5"/>
+    </row>
+    <row r="174" spans="5:5">
+      <c r="E174" s="5"/>
+    </row>
+    <row r="175" spans="5:5">
+      <c r="E175" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I9" r:id="rId1" display="亚细亚，美丽而神秘的东方，在盈盈一握的方寸间展示着绚丽的画卷。日本皇居――桂离宫演绎皇室的奢华。传统的茶道、花道展演着古老的扶桑情韵。金碧辉煌的缅甸仰光大金塔，无不讲叙着王朝的兴盛。印度，一个被故事浸染的国度，摩多哈拉圣井让我们洗净灵魂的尘埃；泰姬玛哈尔陵让世人目睹爱情的绝唱，世界一奇观。东南亚水乡营造出浓郁的亚洲风情让我们品尝丰收的成果、聆听生命的歌唱。" tooltip="https://baike.baidu.com/item/%E4%BA%9A%E7%BB%86%E4%BA%9A"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
@@ -3356,7 +5351,7 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3369,176 +5364,287 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="22"/>
+      <c r="I2" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="22"/>
+      <c r="I3" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="23"/>
+      <c r="I4" s="10" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="23"/>
+      <c r="I6" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
+      <c r="E8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="31" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
+      <c r="E9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="31" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
+      <c r="E10" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="31" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="22"/>
+      <c r="I13" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="7"/>
+      <c r="E15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="5" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="6"/>
+      <c r="E16" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="5" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="6"/>
+      <c r="E17" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A18" s="3"/>
@@ -3549,7 +5655,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A19" s="3"/>
@@ -3560,7 +5666,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="23"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A20" s="3"/>
@@ -3571,7 +5677,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A21" s="3"/>
@@ -3582,7 +5688,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="10"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A22" s="3"/>
@@ -3593,7 +5699,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="10"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A23" s="3"/>
@@ -3604,7 +5710,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="10"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A24" s="11"/>
@@ -3615,7 +5721,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="25"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" s="3" customFormat="1" ht="50.1" customHeight="1" spans="5:9">
       <c r="E25" s="5"/>
@@ -3630,7 +5736,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="26"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A27" s="3"/>
@@ -3641,7 +5747,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="22"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="2:9">
       <c r="B28" s="3"/>
@@ -3651,7 +5757,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="22"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A29" s="3"/>
@@ -3662,7 +5768,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="22"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A30" s="3"/>
@@ -3673,7 +5779,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="22"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A31" s="3"/>
@@ -3684,7 +5790,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="22"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A32" s="3"/>
@@ -3695,7 +5801,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="15"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="22"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A33" s="3"/>
@@ -3706,7 +5812,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="22"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A34" s="3"/>
@@ -3717,7 +5823,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="22"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A35" s="3"/>
@@ -3728,7 +5834,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="22"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A36" s="3"/>
@@ -3739,7 +5845,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="22"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A37" s="3"/>
@@ -3750,7 +5856,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="22"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A38" s="3"/>
@@ -3761,7 +5867,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="22"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A39" s="3"/>
@@ -3772,7 +5878,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="22"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A40" s="3"/>
@@ -3783,7 +5889,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="22"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A41" s="3"/>
@@ -3794,7 +5900,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="22"/>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A42" s="3"/>
@@ -3805,7 +5911,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="22"/>
+      <c r="I42" s="5"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A43" s="3"/>
@@ -3816,7 +5922,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="22"/>
+      <c r="I43" s="5"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A44" s="3"/>
@@ -3827,7 +5933,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="22"/>
+      <c r="I44" s="5"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A45" s="3"/>
@@ -3838,7 +5944,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="22"/>
+      <c r="I45" s="5"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A46" s="3"/>
@@ -3849,7 +5955,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="22"/>
+      <c r="I46" s="5"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A47" s="3"/>
@@ -3860,7 +5966,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="22"/>
+      <c r="I47" s="5"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A48" s="3"/>
@@ -3871,7 +5977,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="22"/>
+      <c r="I48" s="5"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A49" s="3"/>
@@ -4556,19 +6662,18 @@
       <c r="I110" s="28"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
@@ -4610,114 +6715,176 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="69.75" customHeight="1" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="22"/>
+      <c r="I2" s="22" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="22"/>
+      <c r="I3" s="22" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="23"/>
+      <c r="I4" s="23" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="23"/>
+      <c r="I6" s="23" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="24" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="24" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="24" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="24" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A12" s="3"/>
@@ -4728,7 +6895,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A13" s="3"/>
@@ -4739,7 +6906,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="22"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A14" s="3"/>
@@ -4750,7 +6917,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A15" s="3"/>
@@ -4761,7 +6928,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
       <c r="A16" s="3"/>
@@ -5804,1248 +7971,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I110"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="11.7777777777778" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="8" width="18.8888888888889" style="2" customWidth="1"/>
-    <col min="9" max="9" width="93.4444444444444" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="69.75" customHeight="1" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="50.1" customHeight="1" spans="5:9">
-      <c r="E25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="2:9">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="22"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="22"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="22"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="22"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="22"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="22"/>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="22"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="22"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="22"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="22"/>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="22"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="27"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="21"/>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="27"/>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="28"/>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="21"/>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="21"/>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="19"/>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="28"/>
-    </row>
-    <row r="59" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="28"/>
-    </row>
-    <row r="60" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="21"/>
-    </row>
-    <row r="61" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="28"/>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="21"/>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="28"/>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="29"/>
-    </row>
-    <row r="65" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-    </row>
-    <row r="68" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-    </row>
-    <row r="69" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-    </row>
-    <row r="70" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="28"/>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-    </row>
-    <row r="74" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-    </row>
-    <row r="75" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="28"/>
-    </row>
-    <row r="76" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="28"/>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="28"/>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="28"/>
-    </row>
-    <row r="80" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="28"/>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="28"/>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="28"/>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="28"/>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="27"/>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-    </row>
-    <row r="88" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="27"/>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="28"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="21"/>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="28"/>
-    </row>
-    <row r="95" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="27"/>
-    </row>
-    <row r="96" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="27"/>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="28"/>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="27"/>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="27"/>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="28"/>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="28"/>
-    </row>
-    <row r="102" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-    </row>
-    <row r="103" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="27"/>
-    </row>
-    <row r="104" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="27"/>
-    </row>
-    <row r="105" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="28"/>
-    </row>
-    <row r="106" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="27"/>
-    </row>
-    <row r="107" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="27"/>
-    </row>
-    <row r="108" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="27"/>
-    </row>
-    <row r="109" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="28"/>
-    </row>
-    <row r="110" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/广东/广东5A景区信息.xlsx
+++ b/广东/广东5A景区信息.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="3"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="长隆度假旅游区" sheetId="4" r:id="rId1"/>
     <sheet name="深圳华侨城旅游区" sheetId="3" r:id="rId2"/>
     <sheet name="深圳观澜湖休闲旅游区" sheetId="5" r:id="rId3"/>
     <sheet name="雁南飞茶田景区" sheetId="6" r:id="rId4"/>
+    <sheet name="白云山风景区" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
   <si>
     <t>所在省份</t>
   </si>
@@ -772,6 +773,57 @@
   <si>
     <t>别墅区初建于1997年秋，有度假别墅14栋，有五房二厅、三房一厅和两房一
 厅三种规格。2004年夏按仿古风格重新装修，由原来封闭式改为敞开式，室内装饰豪华，具有丰富文化的内涵。这是龙壶泳池，池水从石雕龙嘴茶壶中吐出，泳池外侧是锦鲤池，这是“千古一茶”，用一种叫福建茶的植物种植物修剪而成。</t>
+  </si>
+  <si>
+    <t>白云山风景区</t>
+  </si>
+  <si>
+    <t>白云山，是新“羊城八景”之首、国家重点风景名胜区、全国文明风景旅游区和国家AAAAA级景区。它位于广州市的东北部，为南粤名山之一，自古就有“羊城第一秀”之称。山体相当宽阔，由30多座山峰组成，为广东最高峰九连山的支脉。面积20.98平方公里，主峰摩星岭高382米，峰峦重叠，溪涧纵横，登高可俯览全市，遥望珠江。每当雨后天晴或暮春时节，山间白云缭绕，蔚为奇观，白云山之名由此得来。</t>
+  </si>
+  <si>
+    <t>麓湖公园</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    麓湖公园位于广州市北面，白云山风景名胜区南端，占地面积205万平方米，其中麓湖的水体面积21万平方米。
+    公园经过多年建设，逐步成为一个以湖光山色著称的城市大型山水园林。“一山环秀水，半岭隐涛声”正是公园的生动写照，园内林木苍翠，鸟语花香，亭榭桥廊点缀其中，是一片城市中的绿洲。园内的景点有聚芳园、儿童乐园、星海园、白云仙馆，饮食休闲娱乐的地方有鹿鸣酒家、畔山明珠、游艇部等，还有一个18洞国际标准的高尔夫球场。
+    无论你专程畅游还是休闲娱乐，尽可令你饱览岭南园林秀色，心旷神怡，流连忘返。</t>
+  </si>
+  <si>
+    <t>云台花园</t>
+  </si>
+  <si>
+    <t>云台花园坐落于风景秀丽的白云山南麓三台岭风景区内，占地面积25万平方米，因背依白云山的云台岭及园中的中外四季名贵花卉而得名，是目前我国最大的西式花园。云台花园是以世界著名花园——加拿大的布查特花园为蓝本，在1995年9月28日建成开放的，它的建成结束了“花城”无花园的历史，享有“花城明珠”的美誉。</t>
+  </si>
+  <si>
+    <t>广州雕塑公园</t>
+  </si>
+  <si>
+    <t>广州雕塑公园位于白云山飞鹅岭西侧，占地面积为46万平方米，是广州市人民政府于1996年为隆重庆祝广州建城2210年建造的一个主题公园。</t>
+  </si>
+  <si>
+    <t>明珠楼游览区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明珠楼游览区位于白云山风景区的西北部，东起广州大道梅花园，西联白云大道白云国际会议中心，北至同泰路沿线，南面与鸣春谷、摩星岭、荷依岭三个游览区接壤相连，占地约8平方公里，超过了景区总面积的三分之一。主要景点有：明珠楼、桃花涧、梅花谷、翠竹园、回归林、茶趣园、竹溪、白云松涛、黄婆洞水库等。为方便游客出行，景区自西向东依次设有西门、水库门、绿道门、冷冻厂、元下田、永泰、北门、握山、荷树林、梅花园等十个大小门岗。 在这里，您可充分领略到景区“山幽、林绿、气清、景美”的四大特征。白云山邻近北回归线[详细]
+</t>
+  </si>
+  <si>
+    <t>摩星岭</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 白云山摩星岭碑林内，井口直径约1.1米，上砌六角形花岗岩石栏，泉旁绕以龙柱栏板，并竖有行书“九龙泉”花岗石碑，碑高约2.3米。碑与栏杆建于清代。九龙泉水量大，清冽甘甜，素负盛名。据《白云越秀二山合志》载，相传此地原为秦代安期生隐居处，本无泉水，后有9个童子出现，片刻即见泉涌，疑小童为龙所变，故名九龙泉。泉下瀑布如大小珠帘，是一方名胜。又据方志记载：从唐代开始，这里成为广州市民祈雨之所。附近原有九龙庵、龙王神祠等，已不存。</t>
+  </si>
+  <si>
+    <t>鸣春谷</t>
+  </si>
+  <si>
+    <t>鸣春谷位于白云山山顶公园，是我国目前最大的天然赏鸟区。它座落在天南第一峰与九龙泉之间的滴水岩上，占地约5万平方米，分天然式大型鸟笼景区、珍稀鸟观赏景区、鸟表演区等部分。</t>
+  </si>
+  <si>
+    <t>云溪生态公园</t>
+  </si>
+  <si>
+    <t>云溪生态公园位于白云山西侧，是广州“三年一中变”中，白云山由南至北全长8.5公里的西侧绿化休闲带的首期工程。公园面积30公顷，规模接近3个云台花园。</t>
   </si>
 </sst>
 </file>
@@ -779,10 +831,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -823,8 +875,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,9 +905,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,15 +956,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,40 +989,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -928,31 +1003,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,7 +1012,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,13 +1040,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,31 +1094,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1130,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,49 +1166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,19 +1190,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,19 +1214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,6 +1284,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1247,24 +1319,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1276,6 +1330,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,17 +1366,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1322,10 +1374,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1334,136 +1386,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6672,8 +6724,8 @@
   <sheetPr/>
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
@@ -7971,4 +8023,1298 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="11.7777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.7777777777778" style="2" customWidth="1"/>
+    <col min="7" max="8" width="18.8888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="93.4444444444444" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="69.75" customHeight="1" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="50.1" customHeight="1" spans="5:9">
+      <c r="E25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="2:9">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="27"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="21"/>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="21"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="21"/>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="28"/>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="28"/>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="28"/>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="21"/>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="28"/>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="29"/>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="28"/>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+    </row>
+    <row r="74" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="28"/>
+    </row>
+    <row r="76" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="28"/>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="28"/>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="28"/>
+    </row>
+    <row r="80" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="28"/>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="28"/>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="28"/>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="28"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="27"/>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="27"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+    </row>
+    <row r="90" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="28"/>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="21"/>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="28"/>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="27"/>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="27"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="28"/>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="27"/>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="27"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="28"/>
+    </row>
+    <row r="101" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="28"/>
+    </row>
+    <row r="102" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+    </row>
+    <row r="103" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="27"/>
+    </row>
+    <row r="104" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="27"/>
+    </row>
+    <row r="105" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="28"/>
+    </row>
+    <row r="106" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="27"/>
+    </row>
+    <row r="107" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="27"/>
+    </row>
+    <row r="108" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="27"/>
+    </row>
+    <row r="109" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="28"/>
+    </row>
+    <row r="110" s="2" customFormat="1" ht="50.1" customHeight="1" spans="1:9">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>